--- a/Design/database_design.xlsx
+++ b/Design/database_design.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ren/Desktop/work/vagrant/ec-site/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F0C0FD-7F5E-5441-B512-BCE5FFE650AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B268732-EB5B-0441-A26E-AE915079BDC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="Users" sheetId="2" r:id="rId2"/>
     <sheet name="Products" sheetId="3" r:id="rId3"/>
-    <sheet name="Carts" sheetId="4" r:id="rId4"/>
-    <sheet name="Cart_items" sheetId="5" r:id="rId5"/>
+    <sheet name="Musics" sheetId="6" r:id="rId4"/>
+    <sheet name="Carts" sheetId="4" r:id="rId5"/>
+    <sheet name="Cart_items" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="75">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -287,10 +289,7 @@
   <si>
     <t>アイコン画像ID格納用</t>
     <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ガゾウ</t>
+      <t>ヨウガゾウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -342,6 +341,18 @@
   </si>
   <si>
     <t>FK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザーのID</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -349,7 +360,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -810,17 +821,17 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" ht="15.75" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -828,7 +839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3" ht="15.75" customHeight="1">
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -836,7 +847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3" ht="15.75" customHeight="1">
       <c r="B7" s="7">
         <v>2</v>
       </c>
@@ -844,7 +855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3" ht="15.75" customHeight="1">
       <c r="B8" s="6">
         <v>3</v>
       </c>
@@ -852,7 +863,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3" ht="15.75" customHeight="1">
       <c r="B9" s="6">
         <v>4</v>
       </c>
@@ -860,7 +871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:3" ht="15.75" customHeight="1">
       <c r="B10" s="6">
         <v>5</v>
       </c>
@@ -868,11 +879,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:3" ht="15.75" customHeight="1">
       <c r="B11" s="6"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:3" ht="15.75" customHeight="1">
       <c r="B12" s="6"/>
       <c r="C12" s="2"/>
     </row>
@@ -887,10 +898,10 @@
   <dimension ref="A2:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" customWidth="1"/>
@@ -900,35 +911,35 @@
     <col min="10" max="10" width="73.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -957,7 +968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
@@ -982,7 +993,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1001,7 +1012,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1020,7 +1031,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1039,7 +1050,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1058,7 +1069,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1077,7 +1088,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1096,7 +1107,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
@@ -1115,7 +1126,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="15.75" customHeight="1">
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
@@ -1134,7 +1145,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="15.75" customHeight="1">
       <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
@@ -1153,7 +1164,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="15.75" customHeight="1">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1175,10 +1186,10 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
@@ -1187,35 +1198,35 @@
     <col min="10" max="10" width="55.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1244,7 +1255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1269,7 +1280,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1288,7 +1299,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1307,7 +1318,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1326,7 +1337,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
@@ -1345,7 +1356,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="B14" s="2" t="s">
         <v>44</v>
       </c>
@@ -1362,7 +1373,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
@@ -1379,7 +1390,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="B16" s="3" t="s">
         <v>46</v>
       </c>
@@ -1400,7 +1411,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10">
       <c r="B17" s="3" t="s">
         <v>47</v>
       </c>
@@ -1419,7 +1430,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10">
       <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
@@ -1438,7 +1449,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10">
       <c r="B19" s="11" t="s">
         <v>31</v>
       </c>
@@ -1457,7 +1468,7 @@
       <c r="I19" s="11"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10">
       <c r="C20" s="10"/>
     </row>
   </sheetData>
@@ -1467,14 +1478,202 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62201290-0A27-554F-AF04-979B59214A6B}">
-  <dimension ref="A2:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074E4C14-A253-5B4C-8112-80C26DCAB703}">
+  <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="4.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62201290-0A27-554F-AF04-979B59214A6B}">
+  <dimension ref="A2:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
@@ -1483,35 +1682,35 @@
     <col min="10" max="10" width="55.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1540,7 +1739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1565,34 +1764,36 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="B10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1601,18 +1802,37 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -1620,15 +1840,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0954AE66-BDC3-D946-8090-455E18B66006}">
   <dimension ref="A2:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
@@ -1637,35 +1857,35 @@
     <col min="10" max="10" width="55.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1694,7 +1914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1719,7 +1939,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="B10" s="2" t="s">
         <v>64</v>
       </c>
@@ -1740,7 +1960,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
@@ -1761,7 +1981,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="B12" s="2" t="s">
         <v>67</v>
       </c>
@@ -1782,7 +2002,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
@@ -1801,7 +2021,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="B14" s="11" t="s">
         <v>31</v>
       </c>
@@ -1820,7 +2040,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>

--- a/Design/database_design.xlsx
+++ b/Design/database_design.xlsx
@@ -8,25 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ren/Desktop/work/vagrant/ec-site/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B268732-EB5B-0441-A26E-AE915079BDC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6939F1AC-A4DC-7647-9E09-B2AAFBD11D66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="Users" sheetId="2" r:id="rId2"/>
-    <sheet name="Products" sheetId="3" r:id="rId3"/>
-    <sheet name="Musics" sheetId="6" r:id="rId4"/>
-    <sheet name="Carts" sheetId="4" r:id="rId5"/>
-    <sheet name="Cart_items" sheetId="5" r:id="rId6"/>
+    <sheet name="customers" sheetId="2" r:id="rId2"/>
+    <sheet name="customers_admins" sheetId="8" r:id="rId3"/>
+    <sheet name="products" sheetId="9" r:id="rId4"/>
+    <sheet name="discs" sheetId="11" r:id="rId5"/>
+    <sheet name="songs" sheetId="12" r:id="rId6"/>
+    <sheet name="artists" sheetId="14" r:id="rId7"/>
+    <sheet name="labels" sheetId="15" r:id="rId8"/>
+    <sheet name="genres" sheetId="13" r:id="rId9"/>
+    <sheet name="carts" sheetId="16" r:id="rId10"/>
+    <sheet name="orders" sheetId="17" r:id="rId11"/>
+    <sheet name="order_shows" sheetId="18" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="140">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -40,9 +45,6 @@
     <t>テーブル名</t>
   </si>
   <si>
-    <t>Users</t>
-  </si>
-  <si>
     <t>カラム名</t>
   </si>
   <si>
@@ -58,9 +60,6 @@
     <t>NOT NULL</t>
   </si>
   <si>
-    <t>AUTO INCREMENt</t>
-  </si>
-  <si>
     <t>INDEX</t>
   </si>
   <si>
@@ -79,22 +78,6 @@
     <t>integer</t>
   </si>
   <si>
-    <t>Products</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Musics</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Carts</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Cart_items</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -108,10 +91,6 @@
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>name_kana</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -161,206 +140,550 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>名前（カナ）</t>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>在庫数</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アイコン画像ID格納用</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>refile使用</t>
     <rPh sb="0" eb="2">
-      <t>ナマエ</t>
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>名前</t>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>作成時の時間</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>顧客テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>商品テーブル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ディスクテーブル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>曲テーブル</t>
     <rPh sb="0" eb="1">
-      <t>ナマエ</t>
+      <t>キョク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>メールアドレス</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>datetime</t>
+    <t>ジャンルテーブル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アーティストテーブル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レーベルテーブル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者テーブル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>受注テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ジュチュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>受注詳細テーブル</t>
+    <rPh sb="0" eb="1">
+      <t>ジュチュウショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カート商品テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>last_name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>first_name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>姓</t>
+    <rPh sb="0" eb="1">
+      <t>セイメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>名</t>
+    <rPh sb="0" eb="1">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>last_name_kana</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>first_name_kana</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セイ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メイ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者ID</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>商品名</t>
+    <rPh sb="0" eb="1">
+      <t>ショウヒンメニ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>値段</t>
+    <rPh sb="0" eb="2">
+      <t>ネダン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ジャケット画像ID格納用</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アーティストID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レーベルID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ジャンルID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>販売ステータス</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>price</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>artist</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>artist_id</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>label_id</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>genre_id</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>stock</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>product_status</t>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>jacket_id</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>label</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>gerne</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>music</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>stock</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>refileを使用</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ディスクID</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ディスク番号</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>商品ID</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>商品名</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>disc_number</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>曲ID</t>
     <rPh sb="0" eb="1">
-      <t>ショウヒン</t>
+      <t>キョク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>価格</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>disc_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アーティストID</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>曲名</t>
+    <rPh sb="0" eb="1">
+      <t>キョクメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>曲順</t>
     <rPh sb="0" eb="2">
-      <t>カカク</t>
+      <t>キョクジュン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ジャケット画像格納用</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>song_number</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>アーティスト名</t>
+    <rPh sb="0" eb="1">
+      <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>profuct_id</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>レーベルID</t>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>レーベル名</t>
     <rPh sb="0" eb="1">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アーティスト名</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ジャンル名</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ジャンルID</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>カート商品ID</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>顧客ID</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>総量</t>
+    <rPh sb="0" eb="2">
+      <t>ソウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>受注ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ジュチュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>配送先郵便番号</t>
+    <rPh sb="0" eb="3">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>配送先住所</t>
     <rPh sb="0" eb="1">
-      <t>メイ</t>
+      <t>ハイソウサキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ジャンル名</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>曲目</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>料金合計</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>支払い方法</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>受注ステータス</t>
+    <rPh sb="0" eb="1">
+      <t>ジュチュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>postal_code</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>price_sum</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>order_status</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>受注詳細ID</t>
     <rPh sb="0" eb="2">
-      <t>キョクモク</t>
+      <t>ジュチュウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>在庫数</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>srting</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>cocoonでフィールドを増やす</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>受注ID</t>
     <rPh sb="0" eb="1">
-      <t>フヤス</t>
+      <t>ジュチュウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アイコン画像ID格納用</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウガゾウ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="2">
+      <t>スウリョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>refile使用</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>カートID</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>カートの中身のID</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>カートの数量</t>
-    <rPh sb="0" eb="2">
-      <t>ノ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>product_id</t>
-  </si>
-  <si>
-    <t>cart_id</t>
-  </si>
-  <si>
-    <t>作成時の時間</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>商品ID</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒｎ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">カートID </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>product_id</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザーのID</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>sting</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>customers_admins</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>products</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>discs</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>songs</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>genres</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>artists</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>labels</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>carts</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>orders</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>order_shows</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>customers</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>customers_admins</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>products</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>discs</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>songs</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>artists</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>labels</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>genres</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>carts</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>orders</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>order_shows</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -384,6 +707,30 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Tsukushi A Round Gothic Bold"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -393,7 +740,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -445,19 +792,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -481,11 +815,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -495,12 +855,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -815,23 +1185,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:C12"/>
+  <dimension ref="B3:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="37.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="15.75" customHeight="1">
+    <row r="3" spans="2:4" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15.75" customHeight="1">
+    <row r="5" spans="2:4" ht="15.75" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -839,53 +1210,130 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15.75" customHeight="1">
+    <row r="6" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B7" s="13">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B8" s="15">
+        <v>3</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B9" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B7" s="7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B8" s="6">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B9" s="6">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B10" s="6">
+      <c r="C9" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B10" s="15">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B11" s="6"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B12" s="6"/>
-      <c r="C12" s="2"/>
+      <c r="C10" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B11" s="13">
+        <v>6</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B12" s="15">
+        <v>7</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B13" s="15">
+        <v>8</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B14" s="15">
+        <v>9</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B15" s="13">
+        <v>10</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B16" s="15">
+        <v>11</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C17" s="12"/>
+      <c r="D17" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -893,12 +1341,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:J19"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33313A00-788B-9A4C-8982-7478D56EB96F}">
+  <dimension ref="A2:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -934,78 +1382,78 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -1014,17 +1462,17 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1033,17 +1481,17 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1051,129 +1499,885 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0157D30E-9F92-C141-86B8-0002B9A43C9F}">
+  <dimension ref="A2:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="8" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="73.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="6"/>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="8"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="3"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F801F66B-8683-0E45-9AB8-9D495C236ACC}">
+  <dimension ref="A2:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="8" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="73.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="8" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="73.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="6"/>
+    </row>
     <row r="19" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -1182,877 +2386,1537 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A2E644-6B6E-AA4E-9B33-FD6C7A23AAED}">
-  <dimension ref="A2:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F9F473-6459-294F-AAF3-24DA70904158}">
+  <dimension ref="A2:J21"/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="55.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="8" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="73.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="8" t="s">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B11" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="11" t="s">
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="C20" s="10"/>
+      <c r="F12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074E4C14-A253-5B4C-8112-80C26DCAB703}">
-  <dimension ref="A2:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E62A652-36A1-354B-9398-75DBCFF629EE}">
+  <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="8" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="73.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="3" t="s">
-        <v>40</v>
+      <c r="J12" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62201290-0A27-554F-AF04-979B59214A6B}">
-  <dimension ref="A2:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2ABB021-86F8-D144-BC3A-0784F66F2DBD}">
+  <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="10" max="10" width="55.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="8" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="73.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>15</v>
-      </c>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>15</v>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0954AE66-BDC3-D946-8090-455E18B66006}">
-  <dimension ref="A2:J15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65B6497-E3CB-BD43-A39A-14CB6EC3CB32}">
+  <dimension ref="A2:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
-    <col min="10" max="10" width="55.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="8" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="73.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>63</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>87</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
+      <c r="I10" s="6"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>71</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D12" s="6"/>
       <c r="E12" s="2" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="3" t="s">
-        <v>40</v>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="11" t="s">
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFDE4CF-6CEB-6147-8AEE-A038287B3758}">
+  <dimension ref="A2:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="8" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="73.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="C9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8101540-6179-8242-942E-B920B39EA447}">
+  <dimension ref="A2:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="8" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="73.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67C2D2B-A558-4547-BAF1-0CF3EE5D6D95}">
+  <dimension ref="A2:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="8" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="73.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>